--- a/output/8_client.xlsx
+++ b/output/8_client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekramulislam/Dropbox/programming/java/dhg/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6EB6DC-4085-BD4F-8C75-644002547DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DE1D34-4A8E-004F-B554-22A364EB2A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22680" xr2:uid="{584F85EE-7F9C-5546-B28E-87ED746201DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="1035">
   <si>
     <t>(base) Ekramuls-MacBook-Pro:p ekramulislam$ java Server</t>
   </si>
@@ -3127,6 +3127,9 @@
   </si>
   <si>
     <t>Time: 0 hours, 4 minutes, 45 seconds</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -3485,65 +3488,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F7096E-7CF2-174F-B403-6C644ABD0341}">
-  <dimension ref="A1:A1077"/>
+  <dimension ref="A1:H1077"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1077"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1011312001</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
